--- a/datosTrabajadores.xlsx
+++ b/datosTrabajadores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ci</t>
   </si>
@@ -73,13 +73,19 @@
   </si>
   <si>
     <t>developer</t>
+  </si>
+  <si>
+    <t>09/08/1997</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +95,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -233,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,7 +268,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +575,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,8 +651,8 @@
       <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="14">
-        <v>35651</v>
+      <c r="D3" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E3" s="7">
         <v>221145</v>
@@ -647,8 +663,8 @@
       <c r="G3" s="8">
         <v>0.08</v>
       </c>
-      <c r="H3" s="14">
-        <v>44409</v>
+      <c r="H3" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,81 +681,81 @@
       <c r="A5" s="6"/>
       <c r="B5" s="12"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="7"/>
       <c r="F5" s="12"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="12"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="12"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="12"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="7"/>
       <c r="F7" s="12"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="7"/>
       <c r="F8" s="12"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="12"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="7"/>
       <c r="F9" s="12"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="12"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="7"/>
       <c r="F10" s="12"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="12"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="7"/>
       <c r="F11" s="12"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="12"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="13"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="10"/>
       <c r="F12" s="13"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datosTrabajadores.xlsx
+++ b/datosTrabajadores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ci</t>
   </si>
@@ -73,19 +73,13 @@
   </si>
   <si>
     <t>developer</t>
-  </si>
-  <si>
-    <t>09/08/1997</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,14 +89,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -247,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,9 +254,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +559,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,8 +635,8 @@
       <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>19</v>
+      <c r="D3" s="14">
+        <v>35651</v>
       </c>
       <c r="E3" s="7">
         <v>221145</v>
@@ -663,8 +647,8 @@
       <c r="G3" s="8">
         <v>0.08</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>20</v>
+      <c r="H3" s="14">
+        <v>44409</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -681,81 +665,81 @@
       <c r="A5" s="6"/>
       <c r="B5" s="12"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="7"/>
       <c r="F5" s="12"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="12"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="12"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="7"/>
       <c r="F7" s="12"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="7"/>
       <c r="F8" s="12"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="12"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="7"/>
       <c r="F9" s="12"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="12"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="7"/>
       <c r="F10" s="12"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="12"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="7"/>
       <c r="F11" s="12"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="13"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="10"/>
       <c r="F12" s="13"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datosTrabajadores.xlsx
+++ b/datosTrabajadores.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F72D5D4-334F-4939-85CE-C20FB1691126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>ci</t>
   </si>
@@ -33,9 +34,6 @@
     <t>afiliacion_bps</t>
   </si>
   <si>
-    <t>cueldo_nominal</t>
-  </si>
-  <si>
     <t>fonasa</t>
   </si>
   <si>
@@ -79,12 +77,60 @@
   </si>
   <si>
     <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>5.168.143-8</t>
+  </si>
+  <si>
+    <t>09/08/1998</t>
+  </si>
+  <si>
+    <t>Ignacio Carmona</t>
+  </si>
+  <si>
+    <t>sueldo_nominal</t>
+  </si>
+  <si>
+    <t>fecha_primero</t>
+  </si>
+  <si>
+    <t>=H3</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>Cedula</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Fecha de ingreso</t>
+  </si>
+  <si>
+    <t># Afiliacion BPS</t>
+  </si>
+  <si>
+    <t>Sueldo nominal</t>
+  </si>
+  <si>
+    <t>Fonasa</t>
+  </si>
+  <si>
+    <t>Fecha de cargo</t>
+  </si>
+  <si>
+    <t>Fecha primero (dia siguiente al de cargo)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -243,34 +289,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -281,14 +368,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -326,7 +416,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -398,7 +488,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,191 +661,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E4">
+        <v>221145</v>
+      </c>
+      <c r="F4" s="5">
+        <v>20000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7">
+      <c r="I4" s="10">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
         <v>221145</v>
       </c>
-      <c r="F3" s="12">
-        <v>20000</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F5" s="5">
+        <v>30000</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.08</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="15"/>
+      <c r="H5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -764,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -776,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/datosTrabajadores.xlsx
+++ b/datosTrabajadores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F72D5D4-334F-4939-85CE-C20FB1691126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5233088E-8E81-4D0F-B7F9-FB7D1B3226E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>ci</t>
   </si>
@@ -94,9 +94,6 @@
     <t>fecha_primero</t>
   </si>
   <si>
-    <t>=H3</t>
-  </si>
-  <si>
     <t>E18</t>
   </si>
   <si>
@@ -125,13 +122,22 @@
   </si>
   <si>
     <t>Fecha primero (dia siguiente al de cargo)</t>
+  </si>
+  <si>
+    <t>02/08/2021</t>
+  </si>
+  <si>
+    <t>01/08/2022</t>
+  </si>
+  <si>
+    <t>02/08/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +157,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -306,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -317,7 +329,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -354,7 +365,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -662,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,94 +692,94 @@
     <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -793,11 +804,11 @@
       <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="10">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -820,11 +831,13 @@
         <v>0.08</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="D6" s="7"/>
@@ -832,7 +845,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="D7" s="7"/>
@@ -840,8 +853,9 @@
       <c r="F7" s="5"/>
       <c r="H7" s="7"/>
       <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="D8" s="7"/>
@@ -849,7 +863,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="D9" s="7"/>
@@ -857,7 +871,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="D10" s="7"/>
@@ -865,7 +879,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="D11" s="7"/>
@@ -873,7 +887,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="D12" s="7"/>
@@ -881,7 +895,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4"/>
@@ -893,6 +907,7 @@
       <c r="I13" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/datosTrabajadores.xlsx
+++ b/datosTrabajadores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5233088E-8E81-4D0F-B7F9-FB7D1B3226E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080A4FFF-0D9D-440F-82C4-1FCFEB60A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,9 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="I0">Hoja1!$I$2</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -676,7 +679,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datosTrabajadores.xlsx
+++ b/datosTrabajadores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080A4FFF-0D9D-440F-82C4-1FCFEB60A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C080A1CF-752E-4EEA-8C00-199F593CCB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,14 +13,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="I0">Hoja1!$I$2</definedName>
+    <definedName name="I0">Hoja1!$J$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>ci</t>
   </si>
@@ -79,9 +79,6 @@
     <t>09/08/1997</t>
   </si>
   <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
     <t>5.168.143-8</t>
   </si>
   <si>
@@ -127,13 +124,22 @@
     <t>Fecha primero (dia siguiente al de cargo)</t>
   </si>
   <si>
-    <t>02/08/2021</t>
-  </si>
-  <si>
-    <t>01/08/2022</t>
-  </si>
-  <si>
-    <t>02/08/2022</t>
+    <t>01/08/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>08/2024</t>
+  </si>
+  <si>
+    <t>fecha_remuneracion</t>
+  </si>
+  <si>
+    <t>Fecha de remuneración</t>
   </si>
 </sst>
 </file>
@@ -191,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -302,19 +308,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -356,10 +349,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -372,6 +361,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,10 +682,11 @@
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -721,10 +712,13 @@
         <v>16</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -741,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>5</v>
@@ -749,40 +743,46 @@
       <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="I2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -805,24 +805,27 @@
         <v>0.08</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>221145</v>
@@ -834,71 +837,81 @@
         <v>0.08</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="D6" s="7"/>
       <c r="F6" s="5"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="7"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="D7" s="7"/>
       <c r="E7" s="9"/>
       <c r="F7" s="5"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="5"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="7"/>
+      <c r="J7" s="5"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="D8" s="7"/>
       <c r="F8" s="5"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="7"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="D9" s="7"/>
       <c r="F9" s="5"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="7"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="D10" s="7"/>
       <c r="F10" s="5"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="7"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="D11" s="7"/>
       <c r="F11" s="5"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="7"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="D12" s="7"/>
       <c r="F12" s="5"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="7"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4"/>
@@ -907,7 +920,8 @@
       <c r="F13" s="6"/>
       <c r="G13" s="4"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
